--- a/dataExcel/imp_phan_loai.xlsx
+++ b/dataExcel/imp_phan_loai.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datn-sua\DATN_CodeWalkers\data_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_CWS\TestCode\DATN_CodeWalkers\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78E7A1DC-2E1A-43AD-B6A2-282A749FCE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7EF01-4232-470D-820C-06EAA2582182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B89377BA-F77E-46B4-ABF3-9308D1B1788B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B89377BA-F77E-46B4-ABF3-9308D1B1788B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -54,81 +54,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Sneaker</t>
+    <t xml:space="preserve"> Running Shoes</t>
   </si>
   <si>
-    <t>Casual Sneakers</t>
+    <t xml:space="preserve"> Casual Sneakers</t>
   </si>
   <si>
-    <t>Basketball Shoes</t>
+    <t xml:space="preserve"> Basketball Shoes</t>
   </si>
   <si>
-    <t>Skate Shoes</t>
+    <t xml:space="preserve"> Skate Shoes</t>
   </si>
   <si>
-    <t>Sneakers</t>
+    <t xml:space="preserve"> Sneakers</t>
   </si>
   <si>
-    <t>Running Shoes</t>
-  </si>
-  <si>
-    <t>Training Shoes</t>
-  </si>
-  <si>
-    <t>Trail Running Shoes</t>
-  </si>
-  <si>
-    <t>Walking Shoes</t>
-  </si>
-  <si>
-    <t>Dress Shoes</t>
-  </si>
-  <si>
-    <t>Sandals</t>
-  </si>
-  <si>
-    <t>Hiking Boots</t>
-  </si>
-  <si>
-    <t>Slip-on Shoes</t>
-  </si>
-  <si>
-    <t>Flip Flops</t>
-  </si>
-  <si>
-    <t>Cleats</t>
-  </si>
-  <si>
-    <t>Work Boots</t>
-  </si>
-  <si>
-    <t>Loafers</t>
-  </si>
-  <si>
-    <t>Formal Shoes</t>
-  </si>
-  <si>
-    <t>Espadrilles</t>
-  </si>
-  <si>
-    <t>Platform Shoes</t>
-  </si>
-  <si>
-    <t>High Heels</t>
-  </si>
-  <si>
-    <t>Ankle Boots</t>
-  </si>
-  <si>
-    <t>Mid-Calf Boots</t>
-  </si>
-  <si>
-    <t>Over-the-Knee Boots</t>
-  </si>
-  <si>
-    <t>Snow Boots</t>
+    <t xml:space="preserve"> Training Shoes</t>
   </si>
 </sst>
 </file>
@@ -164,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,19 +474,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA9529A-EA4A-430D-97F7-1D0F22C5144A}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -574,7 +518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -582,364 +526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/dataExcel/imp_phan_loai.xlsx
+++ b/dataExcel/imp_phan_loai.xlsx
@@ -8,32 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_CWS\TestCode\DATN_CodeWalkers\dataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF7EF01-4232-470D-820C-06EAA2582182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D6B554-4577-4697-A4EA-E93684EC10E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B89377BA-F77E-46B4-ABF3-9308D1B1788B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B89377BA-F77E-46B4-ABF3-9308D1B1788B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$1:$B$25</definedName>
-    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$A$26:$B$50</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">Sheet1!$A$2:$B$26</definedName>
+    <definedName name="ExternalData_3" localSheetId="0" hidden="1">Sheet1!$A$27:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -54,24 +43,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve"> Running Shoes</t>
+    <t>Running Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Casual Sneakers</t>
+    <t>Training Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Basketball Shoes</t>
+    <t>Skate Shoes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Skate Shoes</t>
+    <t>Sneakers</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sneakers</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Training Shoes</t>
+    <t>Basketball Shoes</t>
   </si>
 </sst>
 </file>
@@ -107,10 +93,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,7 +145,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC62FF6-B5DB-496B-8009-C108A88438D5}" name="imp_phân_loại__2" displayName="imp_phân_loại__2" ref="A1:B25" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFC62FF6-B5DB-496B-8009-C108A88438D5}" name="imp_phân_loại__2" displayName="imp_phân_loại__2" ref="A2:B26" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7182BBFC-A23F-407D-ACF2-5C8D8C1B1D74}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8E9463A3-8FBA-4125-A89F-4598418204FE}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
@@ -168,7 +155,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69854232-E359-4E18-AAC6-88E74DEA39F3}" name="imp_phân_loại__24" displayName="imp_phân_loại__24" ref="A26:B50" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{69854232-E359-4E18-AAC6-88E74DEA39F3}" name="imp_phân_loại__24" displayName="imp_phân_loại__24" ref="A27:B51" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{94C268B0-2022-4FFB-9DE2-2C6B1BA95F1B}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{F6531D1A-81CE-4AD3-B915-D355F099FC5E}" uniqueName="2" name="Column2" queryTableFieldId="2"/>
@@ -474,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA9529A-EA4A-430D-97F7-1D0F22C5144A}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,17 +473,9 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -504,7 +483,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -512,26 +491,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
